--- a/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473E6BD1-5E97-4068-87EC-E60448F68385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{941D7511-7B8D-4989-BFCC-E219387B15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC52640-B133-4271-ADC2-38E4853F9971}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F11D86D6-B8A6-4307-9403-DC940BA92EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,62%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>23,01%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>28,74%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,106 +251,106 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>34,24%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>65,76%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +359,55 @@
     <t>29,28%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +416,49 @@
     <t>26,68%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>70,13%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>29,87%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,103 +467,103 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>27,27%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>72,73%</t>
   </si>
   <si>
     <t>78,51%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>35,79%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>64,21%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4603A2A9-6D3A-4D79-8E08-2E140DBC804B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE9E2A-64F0-4E8E-BB92-D77D6D45E162}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2056,10 +2050,10 @@
         <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -2068,13 +2062,13 @@
         <v>561694</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2083,13 @@
         <v>460253</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -2104,13 +2098,13 @@
         <v>410010</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
@@ -2119,13 +2113,13 @@
         <v>870263</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2187,13 @@
         <v>108622</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
@@ -2208,13 +2202,13 @@
         <v>262664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -2223,13 +2217,13 @@
         <v>371286</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2238,13 @@
         <v>750806</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -2259,13 +2253,13 @@
         <v>605770</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1348</v>
@@ -2274,13 +2268,13 @@
         <v>1356576</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2342,13 @@
         <v>790501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>2292</v>
@@ -2363,13 +2357,13 @@
         <v>1544306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
@@ -2378,13 +2372,13 @@
         <v>2334807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2393,13 @@
         <v>2594727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3075</v>
@@ -2414,28 +2408,28 @@
         <v>2291275</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5578</v>
       </c>
       <c r="N29" s="7">
-        <v>4886002</v>
+        <v>4886001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2471,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941D7511-7B8D-4989-BFCC-E219387B15EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC4FBFD-0D42-46C8-9B51-9CC70527EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F11D86D6-B8A6-4307-9403-DC940BA92EC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14BAE87B-22AE-4F3F-916D-73FE670395FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE9E2A-64F0-4E8E-BB92-D77D6D45E162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5E517-DFBB-4D19-A74B-F8D7861F9E17}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC4FBFD-0D42-46C8-9B51-9CC70527EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EAA703B-F45E-4965-9727-D9B9BE00354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14BAE87B-22AE-4F3F-916D-73FE670395FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{468FF0F0-9CDC-440A-B5A5-8B3F62D3B69D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,62%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>23,01%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>28,74%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,319 +251,325 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>34,24%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>27,27%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>72,73%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>78,51%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>35,79%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>64,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5E517-DFBB-4D19-A74B-F8D7861F9E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DFA7CB-661C-4F5C-9EA7-8300FC7476DD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2050,10 +2056,10 @@
         <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -2062,13 +2068,13 @@
         <v>561694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2089,13 @@
         <v>460253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -2098,13 +2104,13 @@
         <v>410010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
@@ -2113,13 +2119,13 @@
         <v>870263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2193,13 @@
         <v>108622</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
@@ -2202,13 +2208,13 @@
         <v>262664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -2217,13 +2223,13 @@
         <v>371286</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>750806</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -2253,13 +2259,13 @@
         <v>605770</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1348</v>
@@ -2268,13 +2274,13 @@
         <v>1356576</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2348,13 @@
         <v>790501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2292</v>
@@ -2357,13 +2363,13 @@
         <v>1544306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
@@ -2372,13 +2378,13 @@
         <v>2334807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2399,13 @@
         <v>2594727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3075</v>
@@ -2408,28 +2414,28 @@
         <v>2291275</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>5578</v>
       </c>
       <c r="N29" s="7">
-        <v>4886001</v>
+        <v>4886002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EAA703B-F45E-4965-9727-D9B9BE00354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{410D851D-0A91-400C-9341-D4439B0DB150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{468FF0F0-9CDC-440A-B5A5-8B3F62D3B69D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8EE0815A-8B96-42EA-87A0-AAC30759FC22}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,442 +134,442 @@
     <t>Cadiz</t>
   </si>
   <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DFA7CB-661C-4F5C-9EA7-8300FC7476DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C46CC78-D69D-46C1-A98F-112A7810E69C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1105,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>76479</v>
+        <v>90052</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>240</v>
       </c>
       <c r="I4" s="7">
-        <v>120644</v>
+        <v>127327</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1135,7 @@
         <v>341</v>
       </c>
       <c r="N4" s="7">
-        <v>197122</v>
+        <v>217380</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         <v>230</v>
       </c>
       <c r="D5" s="7">
-        <v>183819</v>
+        <v>221391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1171,7 @@
         <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>150759</v>
+        <v>162308</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1186,7 @@
         <v>528</v>
       </c>
       <c r="N5" s="7">
-        <v>334578</v>
+        <v>383697</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1260,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="7">
-        <v>119505</v>
+        <v>115416</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1275,7 @@
         <v>308</v>
       </c>
       <c r="I7" s="7">
-        <v>224443</v>
+        <v>207405</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1284,22 +1284,22 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>407</v>
       </c>
       <c r="N7" s="7">
-        <v>343948</v>
+        <v>322821</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1311,46 +1311,46 @@
         <v>283</v>
       </c>
       <c r="D8" s="7">
-        <v>399792</v>
+        <v>402974</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
       </c>
       <c r="I8" s="7">
-        <v>330123</v>
+        <v>307564</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>692</v>
       </c>
       <c r="N8" s="7">
-        <v>729916</v>
+        <v>710538</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1415,46 +1415,46 @@
         <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>92626</v>
+        <v>89583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>253</v>
       </c>
       <c r="I10" s="7">
-        <v>156172</v>
+        <v>145314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>369</v>
       </c>
       <c r="N10" s="7">
-        <v>248798</v>
+        <v>234897</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,46 +1466,46 @@
         <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>229614</v>
+        <v>226467</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
       </c>
       <c r="I11" s="7">
-        <v>217112</v>
+        <v>203814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>527</v>
       </c>
       <c r="N11" s="7">
-        <v>446726</v>
+        <v>430281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1532,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1547,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1570,46 +1570,46 @@
         <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>99329</v>
+        <v>95148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>300</v>
       </c>
       <c r="I13" s="7">
-        <v>178792</v>
+        <v>164857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>392</v>
       </c>
       <c r="N13" s="7">
-        <v>278121</v>
+        <v>260005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,46 +1621,46 @@
         <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>222911</v>
+        <v>217409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>299</v>
       </c>
       <c r="I14" s="7">
-        <v>249764</v>
+        <v>310861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>499</v>
       </c>
       <c r="N14" s="7">
-        <v>472675</v>
+        <v>528269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1725,46 +1725,46 @@
         <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>45272</v>
+        <v>41135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
       </c>
       <c r="I16" s="7">
-        <v>88870</v>
+        <v>80539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
       </c>
       <c r="N16" s="7">
-        <v>134142</v>
+        <v>121674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,46 +1776,46 @@
         <v>212</v>
       </c>
       <c r="D17" s="7">
-        <v>151476</v>
+        <v>137607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
       </c>
       <c r="I17" s="7">
-        <v>170643</v>
+        <v>178240</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
       </c>
       <c r="N17" s="7">
-        <v>322118</v>
+        <v>315847</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1842,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1857,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1880,46 +1880,46 @@
         <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>81167</v>
+        <v>78217</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>228</v>
       </c>
       <c r="I19" s="7">
-        <v>118527</v>
+        <v>110374</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>199694</v>
+        <v>188591</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,46 +1931,46 @@
         <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>196056</v>
+        <v>191419</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>157095</v>
+        <v>146682</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
       </c>
       <c r="N20" s="7">
-        <v>353151</v>
+        <v>338101</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2035,46 +2035,46 @@
         <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>167501</v>
+        <v>164916</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
       </c>
       <c r="I22" s="7">
-        <v>394193</v>
+        <v>466963</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
       </c>
       <c r="N22" s="7">
-        <v>561694</v>
+        <v>631879</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,46 +2086,46 @@
         <v>441</v>
       </c>
       <c r="D23" s="7">
-        <v>460253</v>
+        <v>459363</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
       </c>
       <c r="I23" s="7">
-        <v>410010</v>
+        <v>382302</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
       </c>
       <c r="N23" s="7">
-        <v>870263</v>
+        <v>841665</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2137,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2167,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2190,46 +2190,46 @@
         <v>118</v>
       </c>
       <c r="D25" s="7">
-        <v>108622</v>
+        <v>92432</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
       </c>
       <c r="I25" s="7">
-        <v>262664</v>
+        <v>219175</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
       </c>
       <c r="N25" s="7">
-        <v>371286</v>
+        <v>311607</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,46 +2241,46 @@
         <v>644</v>
       </c>
       <c r="D26" s="7">
-        <v>750806</v>
+        <v>836288</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
       </c>
       <c r="I26" s="7">
-        <v>605770</v>
+        <v>498556</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1348</v>
       </c>
       <c r="N26" s="7">
-        <v>1356576</v>
+        <v>1334845</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2307,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2322,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,46 +2345,46 @@
         <v>873</v>
       </c>
       <c r="D28" s="7">
-        <v>790501</v>
+        <v>766900</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2292</v>
       </c>
       <c r="I28" s="7">
-        <v>1544306</v>
+        <v>1521954</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
       </c>
       <c r="N28" s="7">
-        <v>2334807</v>
+        <v>2288854</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,46 +2396,46 @@
         <v>2503</v>
       </c>
       <c r="D29" s="7">
-        <v>2594727</v>
+        <v>2692917</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3075</v>
       </c>
       <c r="I29" s="7">
-        <v>2291275</v>
+        <v>2190326</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>5578</v>
       </c>
       <c r="N29" s="7">
-        <v>4886002</v>
+        <v>4883243</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2462,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
